--- a/memory measure.xlsx
+++ b/memory measure.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matus\Documents\skola\vsb\diplomka\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B53CED-90AB-45F9-A4D5-794DB7E41F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714A76AC-A683-4A50-B7E1-021E0255B6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17136" yWindow="0" windowWidth="23268" windowHeight="16668" xr2:uid="{5FBC6FFD-CEFE-4D33-BE50-DE5A01931BEA}"/>
+    <workbookView xWindow="17136" yWindow="0" windowWidth="23268" windowHeight="16668" activeTab="1" xr2:uid="{5FBC6FFD-CEFE-4D33-BE50-DE5A01931BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hárok2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>len</t>
   </si>
@@ -51,6 +52,36 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>resend count</t>
+  </si>
+  <si>
+    <t>packets sent</t>
+  </si>
+  <si>
+    <t>packet received</t>
+  </si>
+  <si>
+    <t>avg latency</t>
+  </si>
+  <si>
+    <t>packet loss</t>
+  </si>
+  <si>
+    <t>message len</t>
+  </si>
+  <si>
+    <t>N latency measures</t>
+  </si>
+  <si>
+    <t>latency in ms</t>
+  </si>
+  <si>
+    <t>N AVG</t>
+  </si>
+  <si>
+    <t>resend timeout = 2 secs</t>
   </si>
 </sst>
 </file>
@@ -820,7 +851,1125 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK" sz="1800"/>
+              <a:t>Čas,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" sz="1800" baseline="0"/>
+              <a:t> za ktorý prijal uzol ACK správu v závislosti k dĺžke správy</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="sk-SK" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sk-SK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hárok2!$A$10:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hárok2!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14767.0625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13069.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13666.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17915.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19308.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25207.8125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-276F-41C3-AAFC-B233D75C184A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="557706128"/>
+        <c:axId val="557711528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="557706128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Počet znakov v správe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sk-SK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557711528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="557711528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>riemern</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>ý</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>čas v milisekundách</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sk-SK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557706128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>Závisloť</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> stratovosti paketov na hodnote premennej ResendCount</a:t>
+            </a:r>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sk-SK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hárok2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hárok2!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>56.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD3E-4D7B-A3AB-1389328C1466}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="548989984"/>
+        <c:axId val="548991784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="548989984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hodnota konfigura</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>čnej</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" baseline="0"/>
+                  <a:t> premennej Resend Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="sk-SK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sk-SK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548991784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="548991784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Stratovosť paketov v </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:endParaRPr lang="sk-SK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sk-SK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548989984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1363,6 +2512,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1396,6 +3564,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>141865</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133975</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D8BCCB-497F-7072-37BB-84B910E1C584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71717</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1243BF-BE17-96F7-E5D1-64B2510E5CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1703,7 +3948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534058E1-2F02-4BBB-8AB9-28ACE35A5153}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -1991,4 +4236,632 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D5C9BD-3568-470D-9101-CE0F0DD13FC3}">
+  <dimension ref="A1:S44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D5" si="0">((B2-C2)/B2)*100</f>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <f>((B6-C6)/B6)*100</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(D10:S10)</f>
+        <v>14767.0625</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>8056</v>
+      </c>
+      <c r="E10">
+        <v>7838</v>
+      </c>
+      <c r="F10">
+        <v>15912</v>
+      </c>
+      <c r="G10">
+        <v>8074</v>
+      </c>
+      <c r="H10">
+        <v>17532</v>
+      </c>
+      <c r="I10">
+        <v>16982</v>
+      </c>
+      <c r="J10">
+        <v>8173</v>
+      </c>
+      <c r="K10">
+        <v>8178</v>
+      </c>
+      <c r="L10">
+        <v>17282</v>
+      </c>
+      <c r="M10">
+        <v>16834</v>
+      </c>
+      <c r="N10">
+        <v>25392</v>
+      </c>
+      <c r="O10">
+        <v>17080</v>
+      </c>
+      <c r="P10">
+        <v>17686</v>
+      </c>
+      <c r="Q10">
+        <v>17434</v>
+      </c>
+      <c r="R10">
+        <v>17186</v>
+      </c>
+      <c r="S10">
+        <v>16634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:B15" si="1">AVERAGE(D11:S11)</f>
+        <v>13069.375</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>8077</v>
+      </c>
+      <c r="E11">
+        <v>8358</v>
+      </c>
+      <c r="F11">
+        <v>8324</v>
+      </c>
+      <c r="G11">
+        <v>16334</v>
+      </c>
+      <c r="H11">
+        <v>25596</v>
+      </c>
+      <c r="I11">
+        <v>8730</v>
+      </c>
+      <c r="J11">
+        <v>8480</v>
+      </c>
+      <c r="K11">
+        <v>8022</v>
+      </c>
+      <c r="L11">
+        <v>25530</v>
+      </c>
+      <c r="M11">
+        <v>24896</v>
+      </c>
+      <c r="N11">
+        <v>8500</v>
+      </c>
+      <c r="O11">
+        <v>8626</v>
+      </c>
+      <c r="P11">
+        <v>8034</v>
+      </c>
+      <c r="Q11">
+        <v>16985</v>
+      </c>
+      <c r="R11">
+        <v>16246</v>
+      </c>
+      <c r="S11">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>13666.1875</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>9192</v>
+      </c>
+      <c r="E12">
+        <v>8526</v>
+      </c>
+      <c r="F12">
+        <v>17137</v>
+      </c>
+      <c r="G12">
+        <v>16640</v>
+      </c>
+      <c r="H12">
+        <v>16883</v>
+      </c>
+      <c r="I12">
+        <v>25049</v>
+      </c>
+      <c r="J12">
+        <v>8079</v>
+      </c>
+      <c r="K12">
+        <v>8130</v>
+      </c>
+      <c r="L12">
+        <v>8128</v>
+      </c>
+      <c r="M12">
+        <v>16653</v>
+      </c>
+      <c r="N12">
+        <v>16852</v>
+      </c>
+      <c r="O12">
+        <v>17368</v>
+      </c>
+      <c r="P12">
+        <v>8252</v>
+      </c>
+      <c r="Q12">
+        <v>8477</v>
+      </c>
+      <c r="R12">
+        <v>8228</v>
+      </c>
+      <c r="S12">
+        <v>25065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>17915.9375</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>9332</v>
+      </c>
+      <c r="E13">
+        <v>16836</v>
+      </c>
+      <c r="F13">
+        <v>8828</v>
+      </c>
+      <c r="G13">
+        <v>17336</v>
+      </c>
+      <c r="H13">
+        <v>26146</v>
+      </c>
+      <c r="I13">
+        <v>26394</v>
+      </c>
+      <c r="J13">
+        <v>35010</v>
+      </c>
+      <c r="K13">
+        <v>26194</v>
+      </c>
+      <c r="L13">
+        <v>8862</v>
+      </c>
+      <c r="M13">
+        <v>8460</v>
+      </c>
+      <c r="N13">
+        <v>8626</v>
+      </c>
+      <c r="O13">
+        <v>8090</v>
+      </c>
+      <c r="P13">
+        <v>17184</v>
+      </c>
+      <c r="Q13">
+        <v>17437</v>
+      </c>
+      <c r="R13">
+        <v>26043</v>
+      </c>
+      <c r="S13">
+        <v>25877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>150</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>19308.25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>8663</v>
+      </c>
+      <c r="E14">
+        <v>18186</v>
+      </c>
+      <c r="F14">
+        <v>9300</v>
+      </c>
+      <c r="G14">
+        <v>17336</v>
+      </c>
+      <c r="H14">
+        <v>16832</v>
+      </c>
+      <c r="I14">
+        <v>17634</v>
+      </c>
+      <c r="J14">
+        <v>17385</v>
+      </c>
+      <c r="K14">
+        <v>26986</v>
+      </c>
+      <c r="L14">
+        <v>9310</v>
+      </c>
+      <c r="M14">
+        <v>16737</v>
+      </c>
+      <c r="N14">
+        <v>17438</v>
+      </c>
+      <c r="O14">
+        <v>17286</v>
+      </c>
+      <c r="P14">
+        <v>35602</v>
+      </c>
+      <c r="Q14">
+        <v>25644</v>
+      </c>
+      <c r="R14">
+        <v>36104</v>
+      </c>
+      <c r="S14">
+        <v>18489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>25207.8125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>9098</v>
+      </c>
+      <c r="E15">
+        <v>25444</v>
+      </c>
+      <c r="F15">
+        <v>25890</v>
+      </c>
+      <c r="G15">
+        <v>17236</v>
+      </c>
+      <c r="H15">
+        <v>26446</v>
+      </c>
+      <c r="I15">
+        <v>25946</v>
+      </c>
+      <c r="J15">
+        <v>24942</v>
+      </c>
+      <c r="K15">
+        <v>26552</v>
+      </c>
+      <c r="L15">
+        <v>25494</v>
+      </c>
+      <c r="M15">
+        <v>35400</v>
+      </c>
+      <c r="N15">
+        <v>45429</v>
+      </c>
+      <c r="O15">
+        <v>8828</v>
+      </c>
+      <c r="P15">
+        <v>17757</v>
+      </c>
+      <c r="Q15">
+        <v>18186</v>
+      </c>
+      <c r="R15">
+        <v>26695</v>
+      </c>
+      <c r="S15">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(D10:D15)</f>
+        <v>8736.3333333333339</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:F16" si="2">AVERAGE(E10:E15)</f>
+        <v>14198</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>14231.833333333334</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="3">AVERAGE(G10:G15)</f>
+        <v>15492.666666666666</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16" si="4">AVERAGE(H10:H15)</f>
+        <v>21572.5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16" si="5">AVERAGE(I10:I15)</f>
+        <v>20122.5</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16" si="6">AVERAGE(J10:J15)</f>
+        <v>17011.5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16" si="7">AVERAGE(K10:K15)</f>
+        <v>17343.666666666668</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16" si="8">AVERAGE(L10:L15)</f>
+        <v>15767.666666666666</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16" si="9">AVERAGE(M10:M15)</f>
+        <v>19830</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16" si="10">AVERAGE(N10:N15)</f>
+        <v>20372.833333333332</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16" si="11">AVERAGE(O10:O15)</f>
+        <v>12879.666666666666</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16" si="12">AVERAGE(P10:P15)</f>
+        <v>17419.166666666668</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16" si="13">AVERAGE(Q10:Q15)</f>
+        <v>17360.5</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16" si="14">AVERAGE(R10:R15)</f>
+        <v>21750.333333333332</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16" si="15">AVERAGE(S10:S15)</f>
+        <v>23069.833333333332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>200</v>
+      </c>
+      <c r="B44">
+        <f>AVERAGE(D44:S44)</f>
+        <v>19838.25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>14598</v>
+      </c>
+      <c r="E44">
+        <v>14463</v>
+      </c>
+      <c r="F44">
+        <v>19984</v>
+      </c>
+      <c r="G44">
+        <v>18184</v>
+      </c>
+      <c r="H44">
+        <v>15180</v>
+      </c>
+      <c r="I44">
+        <v>22937</v>
+      </c>
+      <c r="J44">
+        <v>30239</v>
+      </c>
+      <c r="K44">
+        <v>24229</v>
+      </c>
+      <c r="L44">
+        <v>15486</v>
+      </c>
+      <c r="M44">
+        <v>19237</v>
+      </c>
+      <c r="N44">
+        <v>26437</v>
+      </c>
+      <c r="O44">
+        <v>20088</v>
+      </c>
+      <c r="P44">
+        <v>23590</v>
+      </c>
+      <c r="Q44">
+        <v>20089</v>
+      </c>
+      <c r="R44">
+        <v>26894</v>
+      </c>
+      <c r="S44">
+        <v>5777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/memory measure.xlsx
+++ b/memory measure.xlsx
@@ -8,14 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matus\Documents\skola\vsb\diplomka\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714A76AC-A683-4A50-B7E1-021E0255B6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07814E6D-E849-45DF-BC39-DA7F1707300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17136" yWindow="0" windowWidth="23268" windowHeight="16668" activeTab="1" xr2:uid="{5FBC6FFD-CEFE-4D33-BE50-DE5A01931BEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="1" xr2:uid="{5FBC6FFD-CEFE-4D33-BE50-DE5A01931BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
     <sheet name="Hárok2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hárok2!$A$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hárok2!$A$13</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Hárok2!$A$15</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Hárok2!$D$10:$S$10</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Hárok2!$D$15:$S$15</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Hárok2!$D$16:$S$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hárok2!$A$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Hárok2!$A$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Hárok2!$D$10:$S$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Hárok2!$D$12:$S$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Hárok2!$D$13:$S$13</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Hárok2!$D$14:$S$14</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Hárok2!$D$15:$S$15</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Hárok2!$D$16:$S$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>len</t>
   </si>
@@ -83,6 +99,18 @@
   <si>
     <t>resend timeout = 2 secs</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>50 znakov</t>
+  </si>
+  <si>
+    <t>150 znakov</t>
+  </si>
+  <si>
+    <t>200 znakov</t>
+  </si>
 </sst>
 </file>
 
@@ -123,8 +151,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -1026,10 +1055,9 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Hárok2!$A$10:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1038,19 +1066,19 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50 znakov</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>150 znakov</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>200 znakov</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1399,67 +1427,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sk-SK"/>
-              <a:t>Závisloť</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sk-SK" baseline="0"/>
-              <a:t> stratovosti paketov na hodnote premennej ResendCount</a:t>
-            </a:r>
-            <a:endParaRPr lang="sk-SK"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1481,6 +1449,50 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9346844595565105E-2"/>
+                  <c:y val="-2.8630481898353776E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5EEE-47C2-A383-049F4F820013}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2278572346543124E-2"/>
+                  <c:y val="-2.8630481898353773E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5EEE-47C2-A383-049F4F820013}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1566,7 +1578,7 @@
             <c:numRef>
               <c:f>Hárok2!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>56.666666666666664</c:v>
@@ -1802,7 +1814,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1887,6 +1899,160 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{DDE83394-2F1B-41F5-931A-B64662CB2B8C}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Priemer</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000007-6B73-4957-83D7-8ED69E9F1641}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>1 znak</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-D8E4-4D97-A9C3-76C2BC597171}" formatIdx="3">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>50 znakov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000002-D8E4-4D97-A9C3-76C2BC597171}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>150 znakov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000003-D8E4-4D97-A9C3-76C2BC597171}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>200 znakov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Latencia v milisekundách</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="sk-SK" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Latencia v milisekundách</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2009,6 +2175,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3527,6 +3733,521 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3644,6 +4365,84 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>443754</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Graf 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF65B482-7832-435F-8093-2316B75AB8A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14213094" y="3180678"/>
+              <a:ext cx="6333564" cy="4206239"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="sk-SK" sz="1100"/>
+                <a:t>Tento graf nie je k dispozícii vo vašej verzii programu Excel.
+Ak tento tvar upravíte alebo ak zošit uložíte v inom formáte súboru, graf sa natrvalo poškodí.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4240,10 +5039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D5C9BD-3568-470D-9101-CE0F0DD13FC3}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4279,7 +5078,7 @@
       <c r="C2">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f t="shared" ref="D2:D5" si="0">((B2-C2)/B2)*100</f>
         <v>56.666666666666664</v>
       </c>
@@ -4294,7 +5093,7 @@
       <c r="C3">
         <v>22</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" si="0"/>
         <v>26.666666666666668</v>
       </c>
@@ -4309,7 +5108,7 @@
       <c r="C4">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
@@ -4324,7 +5123,7 @@
       <c r="C5">
         <v>29</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
@@ -4339,7 +5138,7 @@
       <c r="C6">
         <v>29</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f>((B6-C6)/B6)*100</f>
         <v>3.3333333333333335</v>
       </c>
@@ -4476,8 +5275,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>50</v>
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
@@ -4596,8 +5395,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>150</v>
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
@@ -4656,8 +5455,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>200</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -4784,12 +5583,17 @@
         <v>23069.833333333332</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -4800,7 +5604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>200</v>
       </c>
